--- a/biology/Botanique/Centre_d'horticulture_à_Philadelphie/Centre_d'horticulture_à_Philadelphie.xlsx
+++ b/biology/Botanique/Centre_d'horticulture_à_Philadelphie/Centre_d'horticulture_à_Philadelphie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_d%27horticulture_%C3%A0_Philadelphie</t>
+          <t>Centre_d'horticulture_à_Philadelphie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre d'horticulture à Philadelphie est situé dans le parc Fairmount à l'angle sud-est de Belmont et Montgomery Drives, à Philadelphie. Il fut construit en 1976 pour les célébrations du bicentenaire des États-Unis. À l'origine, le site fut le lieu où se trouva la résidence de campagne du gouverneur John Penn. En 1876, y fut construit, à l'occasion de l'Exposition universelle qui eut lieu la même année, l'Horticultural Hall (le pavillon de l'horticulture) qui fut détruit par un incendie en 1955. C'est à cet emplacement que fut construit, un siècle plus tard, le Centre d'horticulture[1]. On y retrouve également l'Arboretum du centenaire des États-Unis, des jardins dont le Shofuso Japanese House and Garden, une serre d'une superficie de 31 000 pieds carrés, ainsi qu'une salle d'exposition.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre d'horticulture à Philadelphie est situé dans le parc Fairmount à l'angle sud-est de Belmont et Montgomery Drives, à Philadelphie. Il fut construit en 1976 pour les célébrations du bicentenaire des États-Unis. À l'origine, le site fut le lieu où se trouva la résidence de campagne du gouverneur John Penn. En 1876, y fut construit, à l'occasion de l'Exposition universelle qui eut lieu la même année, l'Horticultural Hall (le pavillon de l'horticulture) qui fut détruit par un incendie en 1955. C'est à cet emplacement que fut construit, un siècle plus tard, le Centre d'horticulture. On y retrouve également l'Arboretum du centenaire des États-Unis, des jardins dont le Shofuso Japanese House and Garden, une serre d'une superficie de 31 000 pieds carrés, ainsi qu'une salle d'exposition.
 </t>
         </is>
       </c>
